--- a/data/trans_dic/P16A18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Habitat-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -949,7 +949,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Habitat-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05797168038271358</v>
+        <v>0.05760719413806911</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07617893658353755</v>
+        <v>0.0725406596619801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.041971646933405</v>
+        <v>0.04124113812656244</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.012506916799226</v>
+        <v>0.01382615552724875</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1089618039921188</v>
+        <v>0.1071820176705583</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.131627356641391</v>
+        <v>0.132318002028653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08591847917194574</v>
+        <v>0.08623669649747143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04320898705080158</v>
+        <v>0.04607188908630675</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.05887159423784824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02229876716128009</v>
+        <v>0.02229876716128008</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05792957964612778</v>
+        <v>0.05763486047775405</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07412624222526197</v>
+        <v>0.07673988546074369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0441838691956891</v>
+        <v>0.0412460494776629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01142579086069264</v>
+        <v>0.01169126409372364</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09959461943654833</v>
+        <v>0.09868418661442144</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1200616660723142</v>
+        <v>0.122637415109729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07896895181658768</v>
+        <v>0.07603592713985885</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03841165656712411</v>
+        <v>0.03804260304762191</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07192733717652572</v>
+        <v>0.07063620421076371</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06420180881553091</v>
+        <v>0.06442037411088794</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04659042550340865</v>
+        <v>0.04639178142915302</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02545259636647999</v>
+        <v>0.02439113838433896</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1234883014026054</v>
+        <v>0.1247222357590305</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1168003819914924</v>
+        <v>0.1122351246721396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08647394765522987</v>
+        <v>0.08838781023232074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06389234783602847</v>
+        <v>0.06310096595657309</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08157993565231275</v>
+        <v>0.08291832960029352</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0789369411204465</v>
+        <v>0.07976439929116266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05271995689880945</v>
+        <v>0.05140383215164794</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0174509921382153</v>
+        <v>0.01762982585352987</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.126734944132673</v>
+        <v>0.1255217106789584</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1289750793002348</v>
+        <v>0.1280773176911007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09161327479468617</v>
+        <v>0.09063333733256294</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04280198771912471</v>
+        <v>0.04363935254844602</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08485347423174242</v>
+        <v>0.0844820002930719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05414850141410672</v>
+        <v>0.05472675519350145</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02281793029578846</v>
+        <v>0.02253686132694101</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1098717759176202</v>
+        <v>0.1102933653142961</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07395056928518276</v>
+        <v>0.07465980919026305</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03719772349992602</v>
+        <v>0.03634967739912502</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27046</v>
+        <v>26876</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34948</v>
+        <v>33279</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17480</v>
+        <v>17176</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5252</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50835</v>
+        <v>50005</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60385</v>
+        <v>60702</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35783</v>
+        <v>35916</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18146</v>
+        <v>19348</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39331</v>
+        <v>39131</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54793</v>
+        <v>56725</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30645</v>
+        <v>28607</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7830</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>67619</v>
+        <v>67001</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88748</v>
+        <v>90652</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54771</v>
+        <v>52736</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26322</v>
+        <v>26069</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34417</v>
+        <v>33799</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35348</v>
+        <v>35468</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25900</v>
+        <v>25790</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13405</v>
+        <v>12846</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>59089</v>
+        <v>59680</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64308</v>
+        <v>61794</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48072</v>
+        <v>49136</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33649</v>
+        <v>33232</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>59869</v>
+        <v>60851</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>53553</v>
+        <v>54115</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>35143</v>
+        <v>34266</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11327</v>
+        <v>11443</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93006</v>
+        <v>92116</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>87501</v>
+        <v>86891</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61070</v>
+        <v>60417</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27781</v>
+        <v>28325</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>205935</v>
+        <v>205034</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>126305</v>
+        <v>127654</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>52046</v>
+        <v>51405</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>266653</v>
+        <v>267676</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>172495</v>
+        <v>174149</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>84845</v>
+        <v>82911</v>
       </c>
     </row>
     <row r="24">
